--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,14 +831,14 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -915,14 +915,14 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <v>50</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -1,144 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="EffectData" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\EffectData.xml" htmlTables="1" htmlFormat="all"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAXHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAXSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SpRegenTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATK_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DODGE_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CRITICAL_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HPREGEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CRITICAL_RATIO_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RESIST_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_CRITICAL_RATIO_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_HALT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_SLOW_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_SILENCE_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_DIZZY_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_FREZE_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MOVE_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATK_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EQUIP_SCALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ESSENCE_SCALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GOLD_SCALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PHYSICAL_BREAK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VPREGEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAXHP_ADD_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATK_ADD_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEF_ADD_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CRITICAL_ADD_RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PlayerAtt1</t>
@@ -153,22 +113,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,8 +151,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -201,167 +179,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="XML">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="MAXHP" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="MAXSP" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="SpRegenTime" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ATK_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DODGE_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="CRITICAL_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="HPREGEN" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="CRITICAL_RATIO_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="RESIST_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_CRITICAL_RATIO_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_HALT_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_SLOW_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_SILENCE_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_DIZZY_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_FREZE_VALUE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="MOVE_SPEED" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="ATK_SPEED" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="EQUIP_SCALE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="ESSENCE_SCALE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="GOLD_SCALE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="PHYSICAL_BREAK" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="VPREGEN" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="MAXHP_ADD_RATE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="ATK_ADD_RATE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="DEF_ADD_RATE" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="CRITICAL_ADD_RATE" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="XML_映射" RootElement="XML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:AB4" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:AB4"/>
-  <tableColumns count="28">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="MAXHP" name="MAXHP">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@MAXHP" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="MAXSP" name="MAXSP">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@MAXSP" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="SpRegenTime" name="SpRegenTime">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@SpRegenTime" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="ATK_VALUE" name="ATK_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ATK_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="DEF_VALUE" name="DEF_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="DODGE_VALUE" name="DODGE_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DODGE_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="CRITICAL_VALUE" name="CRITICAL_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@CRITICAL_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="HPREGEN" name="HPREGEN">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@HPREGEN" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="CRITICAL_RATIO_VALUE" name="CRITICAL_RATIO_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@CRITICAL_RATIO_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="RESIST_VALUE" name="RESIST_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@RESIST_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="DEF_CRITICAL_RATIO_VALUE" name="DEF_CRITICAL_RATIO_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_CRITICAL_RATIO_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="13" uniqueName="DEF_HALT_VALUE" name="DEF_HALT_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_HALT_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="14" uniqueName="DEF_SLOW_VALUE" name="DEF_SLOW_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_SLOW_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="15" uniqueName="DEF_SILENCE_VALUE" name="DEF_SILENCE_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_SILENCE_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="16" uniqueName="DEF_DIZZY_VALUE" name="DEF_DIZZY_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_DIZZY_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="17" uniqueName="DEF_FREZE_VALUE" name="DEF_FREZE_VALUE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_FREZE_VALUE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="18" uniqueName="MOVE_SPEED" name="MOVE_SPEED">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@MOVE_SPEED" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="19" uniqueName="ATK_SPEED" name="ATK_SPEED">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ATK_SPEED" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="20" uniqueName="EQUIP_SCALE" name="EQUIP_SCALE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@EQUIP_SCALE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="21" uniqueName="ESSENCE_SCALE" name="ESSENCE_SCALE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ESSENCE_SCALE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="22" uniqueName="GOLD_SCALE" name="GOLD_SCALE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@GOLD_SCALE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="23" uniqueName="PHYSICAL_BREAK" name="PHYSICAL_BREAK">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@PHYSICAL_BREAK" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="24" uniqueName="VPREGEN" name="VPREGEN">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@VPREGEN" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="25" uniqueName="MAXHP_ADD_RATE" name="MAXHP_ADD_RATE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@MAXHP_ADD_RATE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="26" uniqueName="ATK_ADD_RATE" name="ATK_ADD_RATE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ATK_ADD_RATE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="27" uniqueName="DEF_ADD_RATE" name="DEF_ADD_RATE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@DEF_ADD_RATE" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="28" uniqueName="CRITICAL_ADD_RATE" name="CRITICAL_ADD_RATE">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@CRITICAL_ADD_RATE" xmlDataType="integer"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -371,106 +201,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,181 +312,247 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="27.75" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="32.75" customWidth="1"/>
+    <col min="13" max="14" width="20.25" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="16.5" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="20.25" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="20.25" customWidth="1"/>
+    <col min="26" max="27" width="17.75" customWidth="1"/>
+    <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -826,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -910,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -995,10 +891,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="27030" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,20 +116,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -155,19 +149,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -491,11 +485,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -521,8 +515,8 @@
   <sheetPr/>
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -689,7 +683,7 @@
         <v>100</v>
       </c>
       <c r="R2">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -773,7 +767,7 @@
         <v>100</v>
       </c>
       <c r="R3">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -857,7 +851,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="S4">
         <v>0</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27030" windowHeight="16485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -113,17 +117,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -145,23 +148,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -173,14 +161,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,6 +472,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -511,15 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
@@ -546,7 +539,7 @@
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -683,7 +676,7 @@
         <v>100</v>
       </c>
       <c r="R2">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -716,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -767,7 +760,7 @@
         <v>100</v>
       </c>
       <c r="R3">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -800,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -851,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -885,7 +878,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -676,7 +676,7 @@
         <v>100</v>
       </c>
       <c r="R2">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>100</v>
       </c>
       <c r="R3">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -880,7 +880,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,177 @@
   </si>
   <si>
     <t>PlayerAtt3</t>
+  </si>
+  <si>
+    <t>PlayerAtt4</t>
+  </si>
+  <si>
+    <t>PlayerAtt5</t>
+  </si>
+  <si>
+    <t>PlayerAtt6</t>
+  </si>
+  <si>
+    <t>PlayerAtt7</t>
+  </si>
+  <si>
+    <t>PlayerAtt8</t>
+  </si>
+  <si>
+    <t>PlayerAtt9</t>
+  </si>
+  <si>
+    <t>PlayerAtt10</t>
+  </si>
+  <si>
+    <t>PlayerAtt11</t>
+  </si>
+  <si>
+    <t>PlayerAtt12</t>
+  </si>
+  <si>
+    <t>PlayerAtt13</t>
+  </si>
+  <si>
+    <t>PlayerAtt14</t>
+  </si>
+  <si>
+    <t>PlayerAtt15</t>
+  </si>
+  <si>
+    <t>PlayerAtt16</t>
+  </si>
+  <si>
+    <t>PlayerAtt17</t>
+  </si>
+  <si>
+    <t>PlayerAtt18</t>
+  </si>
+  <si>
+    <t>PlayerAtt19</t>
+  </si>
+  <si>
+    <t>PlayerAtt20</t>
+  </si>
+  <si>
+    <t>PlayerAtt21</t>
+  </si>
+  <si>
+    <t>PlayerAtt22</t>
+  </si>
+  <si>
+    <t>PlayerAtt23</t>
+  </si>
+  <si>
+    <t>PlayerAtt24</t>
+  </si>
+  <si>
+    <t>PlayerAtt25</t>
+  </si>
+  <si>
+    <t>PlayerAtt26</t>
+  </si>
+  <si>
+    <t>PlayerAtt27</t>
+  </si>
+  <si>
+    <t>PlayerAtt28</t>
+  </si>
+  <si>
+    <t>PlayerAtt29</t>
+  </si>
+  <si>
+    <t>PlayerAtt30</t>
+  </si>
+  <si>
+    <t>PlayerAtt31</t>
+  </si>
+  <si>
+    <t>PlayerAtt32</t>
+  </si>
+  <si>
+    <t>PlayerAtt33</t>
+  </si>
+  <si>
+    <t>PlayerAtt34</t>
+  </si>
+  <si>
+    <t>PlayerAtt35</t>
+  </si>
+  <si>
+    <t>PlayerAtt36</t>
+  </si>
+  <si>
+    <t>PlayerAtt37</t>
+  </si>
+  <si>
+    <t>PlayerAtt38</t>
+  </si>
+  <si>
+    <t>PlayerAtt39</t>
+  </si>
+  <si>
+    <t>PlayerAtt40</t>
+  </si>
+  <si>
+    <t>PlayerAtt41</t>
+  </si>
+  <si>
+    <t>PlayerAtt42</t>
+  </si>
+  <si>
+    <t>PlayerAtt43</t>
+  </si>
+  <si>
+    <t>PlayerAtt44</t>
+  </si>
+  <si>
+    <t>PlayerAtt45</t>
+  </si>
+  <si>
+    <t>PlayerAtt46</t>
+  </si>
+  <si>
+    <t>PlayerAtt47</t>
+  </si>
+  <si>
+    <t>PlayerAtt48</t>
+  </si>
+  <si>
+    <t>PlayerAtt49</t>
+  </si>
+  <si>
+    <t>PlayerAtt50</t>
+  </si>
+  <si>
+    <t>PlayerAtt51</t>
+  </si>
+  <si>
+    <t>PlayerAtt52</t>
+  </si>
+  <si>
+    <t>PlayerAtt53</t>
+  </si>
+  <si>
+    <t>PlayerAtt54</t>
+  </si>
+  <si>
+    <t>PlayerAtt55</t>
+  </si>
+  <si>
+    <t>PlayerAtt56</t>
+  </si>
+  <si>
+    <t>PlayerAtt57</t>
+  </si>
+  <si>
+    <t>PlayerAtt58</t>
+  </si>
+  <si>
+    <t>PlayerAtt59</t>
+  </si>
+  <si>
+    <t>PlayerAtt60</t>
   </si>
 </sst>
 </file>
@@ -128,6 +299,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -506,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,6 +1049,4794 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>350</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>55000</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>450</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>450</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>55000</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>550</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <v>550</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>55000</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>100</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>650</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <v>650</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>55000</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>750</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <v>750</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>55000</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>850</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <v>850</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>55000</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>950</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11">
+        <v>950</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>55000</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12">
+        <v>1050</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>55000</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1150</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13">
+        <v>1150</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="R13">
+        <v>55000</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>1250</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14">
+        <v>1250</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <v>55000</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>1350</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15">
+        <v>1350</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>55000</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1450</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16">
+        <v>1450</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <v>55000</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>100</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1550</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17">
+        <v>1550</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>55000</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>1650</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18">
+        <v>1650</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>55000</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>100</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>1750</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19">
+        <v>1750</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>55000</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>100</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>1850</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20">
+        <v>1850</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
+      <c r="R20">
+        <v>55000</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>1950</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21">
+        <v>1950</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>55000</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>2050</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22">
+        <v>2050</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>55000</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>100</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>2150</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23">
+        <v>2150</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="R23">
+        <v>55000</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>100</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>2250</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24">
+        <v>2250</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="R24">
+        <v>55000</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>100</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>2350</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25">
+        <v>2350</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="R25">
+        <v>55000</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>100</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>2450</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26">
+        <v>2450</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26">
+        <v>100</v>
+      </c>
+      <c r="R26">
+        <v>55000</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>100</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>2550</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27">
+        <v>2550</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>100</v>
+      </c>
+      <c r="R27">
+        <v>55000</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>100</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>2650</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28">
+        <v>2650</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28">
+        <v>55000</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>100</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>2750</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29">
+        <v>2750</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
+      <c r="R29">
+        <v>55000</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>100</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>2850</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30">
+        <v>2850</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <v>55000</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>100</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>2950</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31">
+        <v>2950</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="R31">
+        <v>55000</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>100</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>3050</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32">
+        <v>3050</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+      <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+      <c r="R32">
+        <v>55000</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>100</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>3150</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33">
+        <v>3150</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="Q33">
+        <v>100</v>
+      </c>
+      <c r="R33">
+        <v>55000</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>100</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>3250</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34">
+        <v>3250</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <v>100</v>
+      </c>
+      <c r="R34">
+        <v>55000</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>100</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <v>3350</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35">
+        <v>3350</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
+      <c r="M35">
+        <v>100</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>100</v>
+      </c>
+      <c r="R35">
+        <v>55000</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>100</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>3450</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36">
+        <v>3450</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>100</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>100</v>
+      </c>
+      <c r="Q36">
+        <v>100</v>
+      </c>
+      <c r="R36">
+        <v>55000</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>100</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>3550</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37">
+        <v>3550</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+      <c r="P37">
+        <v>100</v>
+      </c>
+      <c r="Q37">
+        <v>100</v>
+      </c>
+      <c r="R37">
+        <v>55000</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>100</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>3650</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38">
+        <v>3650</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+      <c r="N38">
+        <v>100</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>100</v>
+      </c>
+      <c r="R38">
+        <v>55000</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>100</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>3750</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39">
+        <v>3750</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>50</v>
+      </c>
+      <c r="M39">
+        <v>100</v>
+      </c>
+      <c r="N39">
+        <v>100</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+      <c r="P39">
+        <v>100</v>
+      </c>
+      <c r="Q39">
+        <v>100</v>
+      </c>
+      <c r="R39">
+        <v>55000</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>100</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>3850</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40">
+        <v>3850</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>50</v>
+      </c>
+      <c r="M40">
+        <v>100</v>
+      </c>
+      <c r="N40">
+        <v>100</v>
+      </c>
+      <c r="O40">
+        <v>100</v>
+      </c>
+      <c r="P40">
+        <v>100</v>
+      </c>
+      <c r="Q40">
+        <v>100</v>
+      </c>
+      <c r="R40">
+        <v>55000</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>100</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>3950</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41">
+        <v>3950</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>50</v>
+      </c>
+      <c r="M41">
+        <v>100</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41">
+        <v>100</v>
+      </c>
+      <c r="Q41">
+        <v>100</v>
+      </c>
+      <c r="R41">
+        <v>55000</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>100</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>4050</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42">
+        <v>4050</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>100</v>
+      </c>
+      <c r="N42">
+        <v>100</v>
+      </c>
+      <c r="O42">
+        <v>100</v>
+      </c>
+      <c r="P42">
+        <v>100</v>
+      </c>
+      <c r="Q42">
+        <v>100</v>
+      </c>
+      <c r="R42">
+        <v>55000</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>100</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>4150</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43">
+        <v>4150</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <v>100</v>
+      </c>
+      <c r="O43">
+        <v>100</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>100</v>
+      </c>
+      <c r="R43">
+        <v>55000</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>100</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>4250</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44">
+        <v>4250</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>100</v>
+      </c>
+      <c r="N44">
+        <v>100</v>
+      </c>
+      <c r="O44">
+        <v>100</v>
+      </c>
+      <c r="P44">
+        <v>100</v>
+      </c>
+      <c r="Q44">
+        <v>100</v>
+      </c>
+      <c r="R44">
+        <v>55000</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>100</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>4350</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45">
+        <v>4350</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
+      <c r="O45">
+        <v>100</v>
+      </c>
+      <c r="P45">
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <v>100</v>
+      </c>
+      <c r="R45">
+        <v>55000</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>100</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>4450</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46">
+        <v>4450</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>100</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>55000</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>100</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47">
+        <v>4550</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47">
+        <v>4550</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>50</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>100</v>
+      </c>
+      <c r="R47">
+        <v>55000</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>100</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>4650</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48">
+        <v>4650</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>100</v>
+      </c>
+      <c r="R48">
+        <v>55000</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>100</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>4750</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49">
+        <v>4750</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>100</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49">
+        <v>100</v>
+      </c>
+      <c r="R49">
+        <v>55000</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>100</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>4850</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50">
+        <v>4850</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+      <c r="O50">
+        <v>100</v>
+      </c>
+      <c r="P50">
+        <v>100</v>
+      </c>
+      <c r="Q50">
+        <v>100</v>
+      </c>
+      <c r="R50">
+        <v>55000</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>100</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <v>4950</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51">
+        <v>4950</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="N51">
+        <v>100</v>
+      </c>
+      <c r="O51">
+        <v>100</v>
+      </c>
+      <c r="P51">
+        <v>100</v>
+      </c>
+      <c r="Q51">
+        <v>100</v>
+      </c>
+      <c r="R51">
+        <v>55000</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>100</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>5050</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52">
+        <v>5050</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+      <c r="O52">
+        <v>100</v>
+      </c>
+      <c r="P52">
+        <v>100</v>
+      </c>
+      <c r="Q52">
+        <v>100</v>
+      </c>
+      <c r="R52">
+        <v>55000</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>100</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>5150</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53">
+        <v>5150</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>50</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>100</v>
+      </c>
+      <c r="N53">
+        <v>100</v>
+      </c>
+      <c r="O53">
+        <v>100</v>
+      </c>
+      <c r="P53">
+        <v>100</v>
+      </c>
+      <c r="Q53">
+        <v>100</v>
+      </c>
+      <c r="R53">
+        <v>55000</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>100</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <v>5250</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54">
+        <v>5250</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <v>100</v>
+      </c>
+      <c r="O54">
+        <v>100</v>
+      </c>
+      <c r="P54">
+        <v>100</v>
+      </c>
+      <c r="Q54">
+        <v>100</v>
+      </c>
+      <c r="R54">
+        <v>55000</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>100</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>5350</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55">
+        <v>5350</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <v>100</v>
+      </c>
+      <c r="N55">
+        <v>100</v>
+      </c>
+      <c r="O55">
+        <v>100</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55">
+        <v>55000</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>100</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>5450</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56">
+        <v>5450</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <v>100</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <v>100</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>100</v>
+      </c>
+      <c r="R56">
+        <v>55000</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>100</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>5550</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57">
+        <v>5550</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>50</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>100</v>
+      </c>
+      <c r="N57">
+        <v>100</v>
+      </c>
+      <c r="O57">
+        <v>100</v>
+      </c>
+      <c r="P57">
+        <v>100</v>
+      </c>
+      <c r="Q57">
+        <v>100</v>
+      </c>
+      <c r="R57">
+        <v>55000</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>100</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>5650</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58">
+        <v>5650</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>50</v>
+      </c>
+      <c r="H58">
+        <v>50</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58">
+        <v>100</v>
+      </c>
+      <c r="N58">
+        <v>100</v>
+      </c>
+      <c r="O58">
+        <v>100</v>
+      </c>
+      <c r="P58">
+        <v>100</v>
+      </c>
+      <c r="Q58">
+        <v>100</v>
+      </c>
+      <c r="R58">
+        <v>55000</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>100</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>5750</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59">
+        <v>5750</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59">
+        <v>50</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="M59">
+        <v>100</v>
+      </c>
+      <c r="N59">
+        <v>100</v>
+      </c>
+      <c r="O59">
+        <v>100</v>
+      </c>
+      <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <v>100</v>
+      </c>
+      <c r="R59">
+        <v>55000</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>100</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>5850</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60">
+        <v>5850</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+      <c r="H60">
+        <v>50</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60">
+        <v>100</v>
+      </c>
+      <c r="N60">
+        <v>100</v>
+      </c>
+      <c r="O60">
+        <v>100</v>
+      </c>
+      <c r="P60">
+        <v>100</v>
+      </c>
+      <c r="Q60">
+        <v>100</v>
+      </c>
+      <c r="R60">
+        <v>55000</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>100</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>5950</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61">
+        <v>5950</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>50</v>
+      </c>
+      <c r="H61">
+        <v>50</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <v>100</v>
+      </c>
+      <c r="N61">
+        <v>100</v>
+      </c>
+      <c r="O61">
+        <v>100</v>
+      </c>
+      <c r="P61">
+        <v>100</v>
+      </c>
+      <c r="Q61">
+        <v>100</v>
+      </c>
+      <c r="R61">
+        <v>55000</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>100</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -30,81 +30,21 @@
     <t>MAXSP</t>
   </si>
   <si>
-    <t>SpRegenTime</t>
-  </si>
-  <si>
     <t>ATK_VALUE</t>
   </si>
   <si>
     <t>DEF_VALUE</t>
   </si>
   <si>
-    <t>DODGE_VALUE</t>
-  </si>
-  <si>
-    <t>CRITICAL_VALUE</t>
-  </si>
-  <si>
     <t>HPREGEN</t>
   </si>
   <si>
-    <t>CRITICAL_RATIO_VALUE</t>
-  </si>
-  <si>
-    <t>RESIST_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_CRITICAL_RATIO_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_HALT_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_SLOW_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_SILENCE_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_DIZZY_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_FREZE_VALUE</t>
-  </si>
-  <si>
     <t>MOVE_SPEED</t>
   </si>
   <si>
     <t>ATK_SPEED</t>
   </si>
   <si>
-    <t>EQUIP_SCALE</t>
-  </si>
-  <si>
-    <t>ESSENCE_SCALE</t>
-  </si>
-  <si>
-    <t>GOLD_SCALE</t>
-  </si>
-  <si>
-    <t>PHYSICAL_BREAK</t>
-  </si>
-  <si>
-    <t>VPREGEN</t>
-  </si>
-  <si>
-    <t>MAXHP_ADD_RATE</t>
-  </si>
-  <si>
-    <t>ATK_ADD_RATE</t>
-  </si>
-  <si>
-    <t>DEF_ADD_RATE</t>
-  </si>
-  <si>
-    <t>CRITICAL_ADD_RATE</t>
-  </si>
-  <si>
     <t>PlayerAtt1</t>
   </si>
   <si>
@@ -283,13 +223,68 @@
   </si>
   <si>
     <t>PlayerAtt60</t>
+  </si>
+  <si>
+    <t>MAXMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPREGEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPREGEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_LIGHT</t>
+  </si>
+  <si>
+    <t>ATK_FIRE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_ICE</t>
+  </si>
+  <si>
+    <t>ATK_POISON</t>
+  </si>
+  <si>
+    <t>DEF_FIRE</t>
+  </si>
+  <si>
+    <t>DEF_LIGHT</t>
+  </si>
+  <si>
+    <t>DEF_ICE</t>
+  </si>
+  <si>
+    <t>DEF_POISON</t>
+  </si>
+  <si>
+    <t>DIZZY_GATE</t>
+  </si>
+  <si>
+    <t>MOVE_GATE</t>
+  </si>
+  <si>
+    <t>SKILL_GATE</t>
+  </si>
+  <si>
+    <t>PHYSICAL_GATE</t>
+  </si>
+  <si>
+    <t>MAGIC_GATE</t>
+  </si>
+  <si>
+    <t>BUFF_GATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -302,13 +297,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,11 +339,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,40 +695,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="32.75" customWidth="1"/>
-    <col min="13" max="14" width="20.25" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.25" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="27" width="17.75" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="26" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,196 +720,188 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>55000</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>50</v>
+      </c>
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2">
+        <v>50</v>
+      </c>
+      <c r="S2">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>50</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>50</v>
+      </c>
+      <c r="W2">
+        <v>50</v>
+      </c>
+      <c r="X2">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <v>50</v>
+      </c>
+      <c r="Z2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2">
-        <v>100</v>
-      </c>
-      <c r="Q2">
-        <v>100</v>
-      </c>
-      <c r="R2">
-        <v>55000</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>100</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>150</v>
       </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -917,82 +910,78 @@
         <v>50</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>250</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>250</v>
       </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
       <c r="I4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1001,82 +990,78 @@
         <v>50</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R4">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>350</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>350</v>
       </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1085,82 +1070,78 @@
         <v>50</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R5">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>450</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>450</v>
       </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
       <c r="I6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1169,82 +1150,78 @@
         <v>50</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R6">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>550</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>550</v>
       </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
       <c r="I7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1253,82 +1230,78 @@
         <v>50</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R7">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>650</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>650</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>650</v>
       </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
       <c r="I8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1337,82 +1310,78 @@
         <v>50</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R8">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>750</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>750</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>750</v>
       </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
       <c r="I9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1421,82 +1390,78 @@
         <v>50</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R9">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>850</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>850</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>850</v>
       </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
       <c r="I10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1505,82 +1470,78 @@
         <v>50</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R10">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>950</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>950</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>950</v>
       </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
       <c r="I11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1589,82 +1550,78 @@
         <v>50</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R11">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1050</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>1050</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1050</v>
       </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
       <c r="I12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1673,82 +1630,78 @@
         <v>50</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R12">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1150</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>1150</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1150</v>
       </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
       <c r="I13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1757,82 +1710,78 @@
         <v>50</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R13">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1250</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>1250</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1250</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>50</v>
-      </c>
       <c r="I14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1841,82 +1790,78 @@
         <v>50</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R14">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1350</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>1350</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>1350</v>
       </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
       <c r="I15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1925,82 +1870,78 @@
         <v>50</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R15">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1450</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>1450</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>1450</v>
       </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2009,82 +1950,78 @@
         <v>50</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R16">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1550</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>1550</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>1550</v>
       </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>50</v>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2093,82 +2030,78 @@
         <v>50</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R17">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1650</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>1650</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>1650</v>
       </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>50</v>
-      </c>
       <c r="I18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2177,82 +2110,78 @@
         <v>50</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R18">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1750</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>1750</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>1750</v>
       </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>50</v>
-      </c>
       <c r="I19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2261,82 +2190,78 @@
         <v>50</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R19">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1850</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>1850</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>1850</v>
       </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>50</v>
-      </c>
       <c r="I20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2345,82 +2270,78 @@
         <v>50</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R20">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>1950</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>1950</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>1950</v>
       </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
       <c r="I21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2429,82 +2350,78 @@
         <v>50</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R21">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2050</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>2050</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>2050</v>
       </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>50</v>
-      </c>
       <c r="I22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2513,82 +2430,78 @@
         <v>50</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R22">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2150</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>2150</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>2150</v>
       </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>50</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2597,82 +2510,78 @@
         <v>50</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R23">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2250</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>2250</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>2250</v>
       </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
       <c r="I24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2681,82 +2590,78 @@
         <v>50</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R24">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2350</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>2350</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>2350</v>
       </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>50</v>
-      </c>
       <c r="I25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2765,82 +2670,78 @@
         <v>50</v>
       </c>
       <c r="M25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R25">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2450</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>2450</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>2450</v>
       </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26">
-        <v>50</v>
-      </c>
       <c r="I26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2849,82 +2750,78 @@
         <v>50</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R26">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2550</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>2550</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>2550</v>
       </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>50</v>
-      </c>
-      <c r="H27">
-        <v>50</v>
-      </c>
       <c r="I27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2933,82 +2830,78 @@
         <v>50</v>
       </c>
       <c r="M27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R27">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2650</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>2650</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>2650</v>
       </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28">
-        <v>50</v>
-      </c>
       <c r="I28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3017,82 +2910,78 @@
         <v>50</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R28">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>2750</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>2750</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>2750</v>
       </c>
-      <c r="F29">
-        <v>50</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="H29">
-        <v>50</v>
-      </c>
       <c r="I29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3101,82 +2990,78 @@
         <v>50</v>
       </c>
       <c r="M29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R29">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2850</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>2850</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>2850</v>
       </c>
-      <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>50</v>
-      </c>
       <c r="I30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3185,82 +3070,78 @@
         <v>50</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R30">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2950</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>2950</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>2950</v>
       </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>50</v>
-      </c>
       <c r="I31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J31">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3269,82 +3150,78 @@
         <v>50</v>
       </c>
       <c r="M31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R31">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>3050</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>3050</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>3050</v>
       </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32">
-        <v>50</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
       <c r="I32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3353,82 +3230,78 @@
         <v>50</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R32">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>3150</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>3150</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>3150</v>
       </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="H33">
-        <v>50</v>
-      </c>
       <c r="I33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3437,82 +3310,78 @@
         <v>50</v>
       </c>
       <c r="M33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R33">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>3250</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>3250</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>3250</v>
       </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34">
-        <v>50</v>
-      </c>
       <c r="I34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J34">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3521,82 +3390,78 @@
         <v>50</v>
       </c>
       <c r="M34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R34">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>3350</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>3350</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>3350</v>
       </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>50</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
       <c r="I35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3605,82 +3470,78 @@
         <v>50</v>
       </c>
       <c r="M35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R35">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>3450</v>
       </c>
       <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>3450</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>3450</v>
       </c>
-      <c r="F36">
-        <v>50</v>
-      </c>
-      <c r="G36">
-        <v>50</v>
-      </c>
-      <c r="H36">
-        <v>50</v>
-      </c>
       <c r="I36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3689,82 +3550,78 @@
         <v>50</v>
       </c>
       <c r="M36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R36">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>3550</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>3550</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>3550</v>
       </c>
-      <c r="F37">
-        <v>50</v>
-      </c>
-      <c r="G37">
-        <v>50</v>
-      </c>
-      <c r="H37">
-        <v>50</v>
-      </c>
       <c r="I37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3773,82 +3630,78 @@
         <v>50</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R37">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>3650</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>3650</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>3650</v>
       </c>
-      <c r="F38">
-        <v>50</v>
-      </c>
-      <c r="G38">
-        <v>50</v>
-      </c>
-      <c r="H38">
-        <v>50</v>
-      </c>
       <c r="I38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J38">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3857,82 +3710,78 @@
         <v>50</v>
       </c>
       <c r="M38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R38">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>3750</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>3750</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>3750</v>
       </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
       <c r="I39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J39">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3941,82 +3790,78 @@
         <v>50</v>
       </c>
       <c r="M39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R39">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>3850</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>3850</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>3850</v>
       </c>
-      <c r="F40">
-        <v>50</v>
-      </c>
-      <c r="G40">
-        <v>50</v>
-      </c>
-      <c r="H40">
-        <v>50</v>
-      </c>
       <c r="I40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4025,82 +3870,78 @@
         <v>50</v>
       </c>
       <c r="M40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R40">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>3950</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>3950</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>3950</v>
       </c>
-      <c r="F41">
-        <v>50</v>
-      </c>
-      <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="H41">
-        <v>50</v>
-      </c>
       <c r="I41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4109,82 +3950,78 @@
         <v>50</v>
       </c>
       <c r="M41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R41">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>4050</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>4050</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>4050</v>
       </c>
-      <c r="F42">
-        <v>50</v>
-      </c>
-      <c r="G42">
-        <v>50</v>
-      </c>
-      <c r="H42">
-        <v>50</v>
-      </c>
       <c r="I42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4193,82 +4030,78 @@
         <v>50</v>
       </c>
       <c r="M42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R42">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>4150</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>4150</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>4150</v>
       </c>
-      <c r="F43">
-        <v>50</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
       <c r="I43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J43">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4277,82 +4110,78 @@
         <v>50</v>
       </c>
       <c r="M43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R43">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>4250</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>4250</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>4250</v>
       </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
-      <c r="G44">
-        <v>50</v>
-      </c>
-      <c r="H44">
-        <v>50</v>
-      </c>
       <c r="I44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J44">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4361,82 +4190,78 @@
         <v>50</v>
       </c>
       <c r="M44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R44">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>4350</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>4350</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>4350</v>
       </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-      <c r="H45">
-        <v>50</v>
-      </c>
       <c r="I45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J45">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4445,82 +4270,78 @@
         <v>50</v>
       </c>
       <c r="M45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R45">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>4450</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>4450</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>4450</v>
       </c>
-      <c r="F46">
-        <v>50</v>
-      </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-      <c r="H46">
-        <v>50</v>
-      </c>
       <c r="I46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4529,82 +4350,78 @@
         <v>50</v>
       </c>
       <c r="M46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R46">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>4550</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>4550</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>4550</v>
       </c>
-      <c r="F47">
-        <v>50</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="H47">
-        <v>50</v>
-      </c>
       <c r="I47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J47">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4613,82 +4430,78 @@
         <v>50</v>
       </c>
       <c r="M47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R47">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>4650</v>
       </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>4650</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>4650</v>
       </c>
-      <c r="F48">
-        <v>50</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="H48">
-        <v>50</v>
-      </c>
       <c r="I48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J48">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4697,82 +4510,78 @@
         <v>50</v>
       </c>
       <c r="M48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R48">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>4750</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>4750</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>4750</v>
       </c>
-      <c r="F49">
-        <v>50</v>
-      </c>
-      <c r="G49">
-        <v>50</v>
-      </c>
-      <c r="H49">
-        <v>50</v>
-      </c>
       <c r="I49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J49">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4781,82 +4590,78 @@
         <v>50</v>
       </c>
       <c r="M49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R49">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>4850</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>4850</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>4850</v>
       </c>
-      <c r="F50">
-        <v>50</v>
-      </c>
-      <c r="G50">
-        <v>50</v>
-      </c>
-      <c r="H50">
-        <v>50</v>
-      </c>
       <c r="I50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4865,82 +4670,78 @@
         <v>50</v>
       </c>
       <c r="M50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R50">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>4950</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>4950</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>4950</v>
       </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-      <c r="G51">
-        <v>50</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
       <c r="I51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J51">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4949,82 +4750,78 @@
         <v>50</v>
       </c>
       <c r="M51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R51">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>5050</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>5050</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
       <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>5050</v>
       </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
-      <c r="G52">
-        <v>50</v>
-      </c>
-      <c r="H52">
-        <v>50</v>
-      </c>
       <c r="I52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5033,82 +4830,78 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R52">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>5150</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>5150</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>5150</v>
       </c>
-      <c r="F53">
-        <v>50</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="H53">
-        <v>50</v>
-      </c>
       <c r="I53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J53">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5117,82 +4910,78 @@
         <v>50</v>
       </c>
       <c r="M53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R53">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>5250</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>5250</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>5250</v>
       </c>
-      <c r="F54">
-        <v>50</v>
-      </c>
-      <c r="G54">
-        <v>50</v>
-      </c>
-      <c r="H54">
-        <v>50</v>
-      </c>
       <c r="I54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J54">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5201,82 +4990,78 @@
         <v>50</v>
       </c>
       <c r="M54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R54">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>5350</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>5350</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
       <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>5350</v>
       </c>
-      <c r="F55">
-        <v>50</v>
-      </c>
-      <c r="G55">
-        <v>50</v>
-      </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
       <c r="I55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5285,82 +5070,78 @@
         <v>50</v>
       </c>
       <c r="M55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R55">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>5450</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>5450</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>5450</v>
       </c>
-      <c r="F56">
-        <v>50</v>
-      </c>
-      <c r="G56">
-        <v>50</v>
-      </c>
-      <c r="H56">
-        <v>50</v>
-      </c>
       <c r="I56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J56">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5369,82 +5150,78 @@
         <v>50</v>
       </c>
       <c r="M56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R56">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>5550</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>5550</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>5550</v>
       </c>
-      <c r="F57">
-        <v>50</v>
-      </c>
-      <c r="G57">
-        <v>50</v>
-      </c>
-      <c r="H57">
-        <v>50</v>
-      </c>
       <c r="I57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J57">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5453,82 +5230,78 @@
         <v>50</v>
       </c>
       <c r="M57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R57">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>5650</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>5650</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>5650</v>
       </c>
-      <c r="F58">
-        <v>50</v>
-      </c>
-      <c r="G58">
-        <v>50</v>
-      </c>
-      <c r="H58">
-        <v>50</v>
-      </c>
       <c r="I58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J58">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5537,82 +5310,78 @@
         <v>50</v>
       </c>
       <c r="M58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R58">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>5750</v>
       </c>
       <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>5750</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>5750</v>
       </c>
-      <c r="F59">
-        <v>50</v>
-      </c>
-      <c r="G59">
-        <v>50</v>
-      </c>
-      <c r="H59">
-        <v>50</v>
-      </c>
       <c r="I59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J59">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5621,82 +5390,78 @@
         <v>50</v>
       </c>
       <c r="M59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R59">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>5850</v>
       </c>
       <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>5850</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>5850</v>
       </c>
-      <c r="F60">
-        <v>50</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60">
-        <v>50</v>
-      </c>
       <c r="I60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J60">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -5705,82 +5470,78 @@
         <v>50</v>
       </c>
       <c r="M60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R60">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>5950</v>
       </c>
       <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>5950</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>5950</v>
       </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-      <c r="G61">
-        <v>50</v>
-      </c>
-      <c r="H61">
-        <v>50</v>
-      </c>
       <c r="I61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J61">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -5789,52 +5550,46 @@
         <v>50</v>
       </c>
       <c r="M61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R61">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -30,81 +33,21 @@
     <t>MAXSP</t>
   </si>
   <si>
-    <t>SpRegenTime</t>
-  </si>
-  <si>
     <t>ATK_VALUE</t>
   </si>
   <si>
     <t>DEF_VALUE</t>
   </si>
   <si>
-    <t>DODGE_VALUE</t>
-  </si>
-  <si>
-    <t>CRITICAL_VALUE</t>
-  </si>
-  <si>
     <t>HPREGEN</t>
   </si>
   <si>
-    <t>CRITICAL_RATIO_VALUE</t>
-  </si>
-  <si>
-    <t>RESIST_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_CRITICAL_RATIO_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_HALT_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_SLOW_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_SILENCE_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_DIZZY_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_FREZE_VALUE</t>
-  </si>
-  <si>
     <t>MOVE_SPEED</t>
   </si>
   <si>
     <t>ATK_SPEED</t>
   </si>
   <si>
-    <t>EQUIP_SCALE</t>
-  </si>
-  <si>
-    <t>ESSENCE_SCALE</t>
-  </si>
-  <si>
-    <t>GOLD_SCALE</t>
-  </si>
-  <si>
-    <t>PHYSICAL_BREAK</t>
-  </si>
-  <si>
-    <t>VPREGEN</t>
-  </si>
-  <si>
-    <t>MAXHP_ADD_RATE</t>
-  </si>
-  <si>
-    <t>ATK_ADD_RATE</t>
-  </si>
-  <si>
-    <t>DEF_ADD_RATE</t>
-  </si>
-  <si>
-    <t>CRITICAL_ADD_RATE</t>
-  </si>
-  <si>
     <t>PlayerAtt1</t>
   </si>
   <si>
@@ -283,13 +226,68 @@
   </si>
   <si>
     <t>PlayerAtt60</t>
+  </si>
+  <si>
+    <t>MAXMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPREGEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPREGEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_LIGHT</t>
+  </si>
+  <si>
+    <t>ATK_FIRE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_ICE</t>
+  </si>
+  <si>
+    <t>ATK_POISON</t>
+  </si>
+  <si>
+    <t>DEF_FIRE</t>
+  </si>
+  <si>
+    <t>DEF_LIGHT</t>
+  </si>
+  <si>
+    <t>DEF_ICE</t>
+  </si>
+  <si>
+    <t>DEF_POISON</t>
+  </si>
+  <si>
+    <t>DIZZY_GATE</t>
+  </si>
+  <si>
+    <t>MOVE_GATE</t>
+  </si>
+  <si>
+    <t>SKILL_GATE</t>
+  </si>
+  <si>
+    <t>PHYSICAL_GATE</t>
+  </si>
+  <si>
+    <t>MAGIC_GATE</t>
+  </si>
+  <si>
+    <t>BUFF_GATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -302,13 +300,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,19 +342,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -678,40 +726,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="32.75" customWidth="1"/>
-    <col min="13" max="14" width="20.25" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.25" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="27" width="17.75" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="26" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,196 +751,188 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>55000</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>50</v>
+      </c>
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2">
+        <v>50</v>
+      </c>
+      <c r="S2">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>50</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>50</v>
+      </c>
+      <c r="W2">
+        <v>50</v>
+      </c>
+      <c r="X2">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <v>50</v>
+      </c>
+      <c r="Z2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2">
-        <v>100</v>
-      </c>
-      <c r="Q2">
-        <v>100</v>
-      </c>
-      <c r="R2">
-        <v>55000</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>100</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>150</v>
       </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -917,82 +941,78 @@
         <v>50</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>250</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>250</v>
       </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
       <c r="I4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1001,82 +1021,78 @@
         <v>50</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R4">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>350</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>350</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>350</v>
       </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1085,82 +1101,78 @@
         <v>50</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R5">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>450</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>450</v>
       </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
       <c r="I6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1169,82 +1181,78 @@
         <v>50</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R6">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>550</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>550</v>
       </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
       <c r="I7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1253,82 +1261,78 @@
         <v>50</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R7">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>650</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>650</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>650</v>
       </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
       <c r="I8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1337,82 +1341,78 @@
         <v>50</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R8">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>750</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>750</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>750</v>
       </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
       <c r="I9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1421,82 +1421,78 @@
         <v>50</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R9">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>850</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>850</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>850</v>
       </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
       <c r="I10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1505,82 +1501,78 @@
         <v>50</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R10">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>950</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>950</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>950</v>
       </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
       <c r="I11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1589,82 +1581,78 @@
         <v>50</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R11">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1050</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>1050</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1050</v>
       </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
       <c r="I12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1673,82 +1661,78 @@
         <v>50</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R12">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1150</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>1150</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1150</v>
       </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
       <c r="I13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1757,82 +1741,78 @@
         <v>50</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R13">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1250</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>1250</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1250</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>50</v>
-      </c>
       <c r="I14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1841,82 +1821,78 @@
         <v>50</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R14">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1350</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>1350</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>1350</v>
       </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
       <c r="I15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1925,82 +1901,78 @@
         <v>50</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R15">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1450</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>1450</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>1450</v>
       </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2009,82 +1981,78 @@
         <v>50</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R16">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1550</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>1550</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>1550</v>
       </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>50</v>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2093,82 +2061,78 @@
         <v>50</v>
       </c>
       <c r="M17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R17">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1650</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>1650</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>1650</v>
       </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>50</v>
-      </c>
       <c r="I18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2177,82 +2141,78 @@
         <v>50</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R18">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1750</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>1750</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>1750</v>
       </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>50</v>
-      </c>
       <c r="I19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2261,82 +2221,78 @@
         <v>50</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R19">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1850</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>1850</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>1850</v>
       </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>50</v>
-      </c>
       <c r="I20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2345,82 +2301,78 @@
         <v>50</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R20">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>1950</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>1950</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>1950</v>
       </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
       <c r="I21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2429,82 +2381,78 @@
         <v>50</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R21">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2050</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>2050</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>2050</v>
       </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>50</v>
-      </c>
       <c r="I22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2513,82 +2461,78 @@
         <v>50</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R22">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2150</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>2150</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>2150</v>
       </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>50</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2597,82 +2541,78 @@
         <v>50</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R23">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2250</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>2250</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>2250</v>
       </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
       <c r="I24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2681,82 +2621,78 @@
         <v>50</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R24">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2350</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>2350</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>2350</v>
       </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>50</v>
-      </c>
       <c r="I25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2765,82 +2701,78 @@
         <v>50</v>
       </c>
       <c r="M25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R25">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2450</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>2450</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>2450</v>
       </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26">
-        <v>50</v>
-      </c>
       <c r="I26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2849,82 +2781,78 @@
         <v>50</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R26">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2550</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>2550</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>2550</v>
       </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>50</v>
-      </c>
-      <c r="H27">
-        <v>50</v>
-      </c>
       <c r="I27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2933,82 +2861,78 @@
         <v>50</v>
       </c>
       <c r="M27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R27">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2650</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>2650</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>2650</v>
       </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28">
-        <v>50</v>
-      </c>
       <c r="I28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3017,82 +2941,78 @@
         <v>50</v>
       </c>
       <c r="M28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R28">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>2750</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>2750</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>2750</v>
       </c>
-      <c r="F29">
-        <v>50</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="H29">
-        <v>50</v>
-      </c>
       <c r="I29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3101,82 +3021,78 @@
         <v>50</v>
       </c>
       <c r="M29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R29">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2850</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>2850</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>2850</v>
       </c>
-      <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>50</v>
-      </c>
       <c r="I30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3185,82 +3101,78 @@
         <v>50</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R30">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2950</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>2950</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>2950</v>
       </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>50</v>
-      </c>
       <c r="I31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J31">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3269,82 +3181,78 @@
         <v>50</v>
       </c>
       <c r="M31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R31">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>3050</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>3050</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>3050</v>
       </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32">
-        <v>50</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
       <c r="I32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3353,82 +3261,78 @@
         <v>50</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R32">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>3150</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>3150</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>3150</v>
       </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="H33">
-        <v>50</v>
-      </c>
       <c r="I33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3437,82 +3341,78 @@
         <v>50</v>
       </c>
       <c r="M33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R33">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>3250</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>3250</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>3250</v>
       </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34">
-        <v>50</v>
-      </c>
-      <c r="H34">
-        <v>50</v>
-      </c>
       <c r="I34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J34">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3521,82 +3421,78 @@
         <v>50</v>
       </c>
       <c r="M34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R34">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>3350</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>3350</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>3350</v>
       </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>50</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
       <c r="I35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3605,82 +3501,78 @@
         <v>50</v>
       </c>
       <c r="M35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R35">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>3450</v>
       </c>
       <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>3450</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>3450</v>
       </c>
-      <c r="F36">
-        <v>50</v>
-      </c>
-      <c r="G36">
-        <v>50</v>
-      </c>
-      <c r="H36">
-        <v>50</v>
-      </c>
       <c r="I36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3689,82 +3581,78 @@
         <v>50</v>
       </c>
       <c r="M36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R36">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>3550</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>3550</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>3550</v>
       </c>
-      <c r="F37">
-        <v>50</v>
-      </c>
-      <c r="G37">
-        <v>50</v>
-      </c>
-      <c r="H37">
-        <v>50</v>
-      </c>
       <c r="I37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3773,82 +3661,78 @@
         <v>50</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R37">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>3650</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>3650</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>3650</v>
       </c>
-      <c r="F38">
-        <v>50</v>
-      </c>
-      <c r="G38">
-        <v>50</v>
-      </c>
-      <c r="H38">
-        <v>50</v>
-      </c>
       <c r="I38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J38">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3857,82 +3741,78 @@
         <v>50</v>
       </c>
       <c r="M38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R38">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>3750</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>3750</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>3750</v>
       </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
       <c r="I39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J39">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3941,82 +3821,78 @@
         <v>50</v>
       </c>
       <c r="M39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R39">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>3850</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>3850</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>3850</v>
       </c>
-      <c r="F40">
-        <v>50</v>
-      </c>
-      <c r="G40">
-        <v>50</v>
-      </c>
-      <c r="H40">
-        <v>50</v>
-      </c>
       <c r="I40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4025,82 +3901,78 @@
         <v>50</v>
       </c>
       <c r="M40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R40">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>3950</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>3950</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>3950</v>
       </c>
-      <c r="F41">
-        <v>50</v>
-      </c>
-      <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="H41">
-        <v>50</v>
-      </c>
       <c r="I41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4109,82 +3981,78 @@
         <v>50</v>
       </c>
       <c r="M41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R41">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>4050</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>4050</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>4050</v>
       </c>
-      <c r="F42">
-        <v>50</v>
-      </c>
-      <c r="G42">
-        <v>50</v>
-      </c>
-      <c r="H42">
-        <v>50</v>
-      </c>
       <c r="I42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4193,82 +4061,78 @@
         <v>50</v>
       </c>
       <c r="M42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R42">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>4150</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>4150</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>4150</v>
       </c>
-      <c r="F43">
-        <v>50</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
       <c r="I43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J43">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4277,82 +4141,78 @@
         <v>50</v>
       </c>
       <c r="M43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R43">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>4250</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>4250</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>4250</v>
       </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
-      <c r="G44">
-        <v>50</v>
-      </c>
-      <c r="H44">
-        <v>50</v>
-      </c>
       <c r="I44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J44">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4361,82 +4221,78 @@
         <v>50</v>
       </c>
       <c r="M44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R44">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>4350</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>4350</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>4350</v>
       </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-      <c r="H45">
-        <v>50</v>
-      </c>
       <c r="I45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J45">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4445,82 +4301,78 @@
         <v>50</v>
       </c>
       <c r="M45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R45">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>4450</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>4450</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>4450</v>
       </c>
-      <c r="F46">
-        <v>50</v>
-      </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-      <c r="H46">
-        <v>50</v>
-      </c>
       <c r="I46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4529,82 +4381,78 @@
         <v>50</v>
       </c>
       <c r="M46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R46">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>4550</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>4550</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>4550</v>
       </c>
-      <c r="F47">
-        <v>50</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="H47">
-        <v>50</v>
-      </c>
       <c r="I47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J47">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4613,82 +4461,78 @@
         <v>50</v>
       </c>
       <c r="M47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R47">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>4650</v>
       </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>4650</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>4650</v>
       </c>
-      <c r="F48">
-        <v>50</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="H48">
-        <v>50</v>
-      </c>
       <c r="I48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J48">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4697,82 +4541,78 @@
         <v>50</v>
       </c>
       <c r="M48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R48">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W48">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>4750</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>4750</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>4750</v>
       </c>
-      <c r="F49">
-        <v>50</v>
-      </c>
-      <c r="G49">
-        <v>50</v>
-      </c>
-      <c r="H49">
-        <v>50</v>
-      </c>
       <c r="I49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J49">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4781,82 +4621,78 @@
         <v>50</v>
       </c>
       <c r="M49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R49">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>4850</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>4850</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>4850</v>
       </c>
-      <c r="F50">
-        <v>50</v>
-      </c>
-      <c r="G50">
-        <v>50</v>
-      </c>
-      <c r="H50">
-        <v>50</v>
-      </c>
       <c r="I50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4865,82 +4701,78 @@
         <v>50</v>
       </c>
       <c r="M50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R50">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>4950</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>4950</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>4950</v>
       </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-      <c r="G51">
-        <v>50</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
       <c r="I51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J51">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4949,82 +4781,78 @@
         <v>50</v>
       </c>
       <c r="M51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R51">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>5050</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>5050</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
       <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>5050</v>
       </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
-      <c r="G52">
-        <v>50</v>
-      </c>
-      <c r="H52">
-        <v>50</v>
-      </c>
       <c r="I52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5033,82 +4861,78 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R52">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>5150</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>5150</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>5150</v>
       </c>
-      <c r="F53">
-        <v>50</v>
-      </c>
-      <c r="G53">
-        <v>50</v>
-      </c>
-      <c r="H53">
-        <v>50</v>
-      </c>
       <c r="I53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J53">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5117,82 +4941,78 @@
         <v>50</v>
       </c>
       <c r="M53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R53">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>5250</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>5250</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>5250</v>
       </c>
-      <c r="F54">
-        <v>50</v>
-      </c>
-      <c r="G54">
-        <v>50</v>
-      </c>
-      <c r="H54">
-        <v>50</v>
-      </c>
       <c r="I54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J54">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5201,82 +5021,78 @@
         <v>50</v>
       </c>
       <c r="M54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R54">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>5350</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>5350</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
       <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>5350</v>
       </c>
-      <c r="F55">
-        <v>50</v>
-      </c>
-      <c r="G55">
-        <v>50</v>
-      </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
       <c r="I55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5285,82 +5101,78 @@
         <v>50</v>
       </c>
       <c r="M55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R55">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>5450</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>5450</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>5450</v>
       </c>
-      <c r="F56">
-        <v>50</v>
-      </c>
-      <c r="G56">
-        <v>50</v>
-      </c>
-      <c r="H56">
-        <v>50</v>
-      </c>
       <c r="I56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J56">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5369,82 +5181,78 @@
         <v>50</v>
       </c>
       <c r="M56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R56">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>5550</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>5550</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>5550</v>
       </c>
-      <c r="F57">
-        <v>50</v>
-      </c>
-      <c r="G57">
-        <v>50</v>
-      </c>
-      <c r="H57">
-        <v>50</v>
-      </c>
       <c r="I57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J57">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5453,82 +5261,78 @@
         <v>50</v>
       </c>
       <c r="M57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R57">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>5650</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>5650</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>5650</v>
       </c>
-      <c r="F58">
-        <v>50</v>
-      </c>
-      <c r="G58">
-        <v>50</v>
-      </c>
-      <c r="H58">
-        <v>50</v>
-      </c>
       <c r="I58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J58">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5537,82 +5341,78 @@
         <v>50</v>
       </c>
       <c r="M58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R58">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>5750</v>
       </c>
       <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>5750</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>5750</v>
       </c>
-      <c r="F59">
-        <v>50</v>
-      </c>
-      <c r="G59">
-        <v>50</v>
-      </c>
-      <c r="H59">
-        <v>50</v>
-      </c>
       <c r="I59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J59">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5621,82 +5421,78 @@
         <v>50</v>
       </c>
       <c r="M59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R59">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>5850</v>
       </c>
       <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>5850</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>5850</v>
       </c>
-      <c r="F60">
-        <v>50</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60">
-        <v>50</v>
-      </c>
       <c r="I60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J60">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -5705,82 +5501,78 @@
         <v>50</v>
       </c>
       <c r="M60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R60">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>5950</v>
       </c>
       <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>5950</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>5950</v>
       </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-      <c r="G61">
-        <v>50</v>
-      </c>
-      <c r="H61">
-        <v>50</v>
-      </c>
       <c r="I61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J61">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -5789,52 +5581,46 @@
         <v>50</v>
       </c>
       <c r="M61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R61">
-        <v>55000</v>
+        <v>50</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="16485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -281,13 +276,65 @@
   </si>
   <si>
     <t>BUFF_GATE</t>
+  </si>
+  <si>
+    <t>Equip_Weapon_101</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Weapon_102</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Armor_101</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Armor_102</t>
+  </si>
+  <si>
+    <t>Equip_Boot_101</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Boot_102</t>
+  </si>
+  <si>
+    <t>Gem_Att_Maxhp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Maxmp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Maxsp_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_HpRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_SPRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_MPRegen_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Atk_Value_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Def_Value_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Move_Speed_101</t>
+  </si>
+  <si>
+    <t>Gem_Att_Atk_Speed_101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -311,6 +358,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -342,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +411,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,15 +790,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
@@ -5623,6 +5690,1286 @@
         <v>50</v>
       </c>
     </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>500</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>100</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64">
+        <v>500</v>
+      </c>
+      <c r="C64">
+        <v>500</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>50</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65">
+        <v>2500</v>
+      </c>
+      <c r="C65">
+        <v>2500</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>500</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>70</v>
+      </c>
+      <c r="J66">
+        <v>55000</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <v>500</v>
+      </c>
+      <c r="C67">
+        <v>500</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>130</v>
+      </c>
+      <c r="I67">
+        <v>270</v>
+      </c>
+      <c r="J67">
+        <v>65000</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>100</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -450,12 +450,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -463,33 +463,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -503,21 +481,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,8 +515,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,14 +566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -561,29 +573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -598,17 +589,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,37 +642,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,13 +780,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,114 +822,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -829,41 +836,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,11 +950,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,6 +991,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -931,165 +1028,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1153,8 +1268,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1163,10 +1277,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1518,7 +1629,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1533,651 +1644,651 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:30">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:30">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:30">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="b">
+      <c r="B3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="b">
+      <c r="C3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="b">
+      <c r="D3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="b">
+      <c r="F3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="b">
+      <c r="J3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="b">
+      <c r="K3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="b">
+      <c r="L3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="b">
+      <c r="M3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="4" t="b">
+      <c r="N3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="4" t="b">
+      <c r="O3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="b">
+      <c r="P3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="4" t="b">
+      <c r="Q3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="4" t="b">
+      <c r="R3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="S3" s="4" t="b">
+      <c r="S3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T3" s="4" t="b">
+      <c r="T3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="U3" s="4" t="b">
+      <c r="U3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="V3" s="4" t="b">
+      <c r="V3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="W3" s="4" t="b">
+      <c r="W3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="X3" s="4" t="b">
+      <c r="X3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Y3" s="4" t="b">
+      <c r="Y3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Z3" s="4" t="b">
+      <c r="Z3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AA3" s="4" t="b">
+      <c r="AA3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AB3" s="4" t="b">
+      <c r="AB3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AC3" s="4" t="b">
+      <c r="AC3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AD3" s="4" t="b">
+      <c r="AD3" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:30">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="b">
+      <c r="B4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="b">
+      <c r="C4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="b">
+      <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="E4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="b">
+      <c r="F4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="b">
+      <c r="G4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="b">
+      <c r="J4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="b">
+      <c r="K4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="4" t="b">
+      <c r="L4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="b">
+      <c r="M4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="4" t="b">
+      <c r="N4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="4" t="b">
+      <c r="O4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="4" t="b">
+      <c r="P4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="4" t="b">
+      <c r="Q4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="4" t="b">
+      <c r="R4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="4" t="b">
+      <c r="S4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="4" t="b">
+      <c r="T4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="U4" s="4" t="b">
+      <c r="U4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="V4" s="4" t="b">
+      <c r="V4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="4" t="b">
+      <c r="W4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="X4" s="4" t="b">
+      <c r="X4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Y4" s="4" t="b">
+      <c r="Y4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="4" t="b">
+      <c r="Z4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AA4" s="4" t="b">
+      <c r="AA4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AB4" s="4" t="b">
+      <c r="AB4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AC4" s="4" t="b">
+      <c r="AC4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" s="4" t="b">
+      <c r="AD4" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:30">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4" t="b">
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:30">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="b">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:30">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="O7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B8">
@@ -2269,7 +2380,7 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B9">
@@ -2361,7 +2472,7 @@
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B10">
@@ -2453,7 +2564,7 @@
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B11">
@@ -2545,7 +2656,7 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B12">
@@ -2637,7 +2748,7 @@
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B13">
@@ -2729,7 +2840,7 @@
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B14">
@@ -2821,7 +2932,7 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B15">
@@ -2913,7 +3024,7 @@
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B16">
@@ -3005,7 +3116,7 @@
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B17">
@@ -3097,7 +3208,7 @@
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B18">
@@ -3189,7 +3300,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B19">
@@ -3281,7 +3392,7 @@
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B20">
@@ -3373,7 +3484,7 @@
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B21">
@@ -3465,7 +3576,7 @@
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B22">
@@ -3557,7 +3668,7 @@
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B23">
@@ -3649,7 +3760,7 @@
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B24">
@@ -3741,7 +3852,7 @@
       </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B25">
@@ -3833,7 +3944,7 @@
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B26">
@@ -3925,7 +4036,7 @@
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B27">
@@ -4017,7 +4128,7 @@
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B28">
@@ -4109,7 +4220,7 @@
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B29">
@@ -4201,7 +4312,7 @@
       </c>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B30">
@@ -4293,7 +4404,7 @@
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B31">
@@ -4385,7 +4496,7 @@
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B32">
@@ -4477,7 +4588,7 @@
       </c>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B33">
@@ -4569,7 +4680,7 @@
       </c>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B34">
@@ -4661,7 +4772,7 @@
       </c>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B35">
@@ -4753,7 +4864,7 @@
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B36">
@@ -4845,7 +4956,7 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B37">
@@ -4937,7 +5048,7 @@
       </c>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B38">
@@ -5029,7 +5140,7 @@
       </c>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B39">
@@ -5121,7 +5232,7 @@
       </c>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B40">
@@ -5213,7 +5324,7 @@
       </c>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B41">
@@ -5305,7 +5416,7 @@
       </c>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B42">
@@ -5397,7 +5508,7 @@
       </c>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B43">
@@ -5489,7 +5600,7 @@
       </c>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B44">
@@ -5581,7 +5692,7 @@
       </c>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B45">
@@ -5673,7 +5784,7 @@
       </c>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B46">
@@ -5765,7 +5876,7 @@
       </c>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B47">
@@ -5857,7 +5968,7 @@
       </c>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B48">
@@ -5949,7 +6060,7 @@
       </c>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B49">
@@ -6041,7 +6152,7 @@
       </c>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B50">
@@ -6133,7 +6244,7 @@
       </c>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B51">
@@ -6225,7 +6336,7 @@
       </c>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B52">
@@ -6317,7 +6428,7 @@
       </c>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B53">
@@ -6409,7 +6520,7 @@
       </c>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B54">
@@ -6501,7 +6612,7 @@
       </c>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B55">
@@ -6593,7 +6704,7 @@
       </c>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B56">
@@ -6685,7 +6796,7 @@
       </c>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B57">
@@ -6777,7 +6888,7 @@
       </c>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B58">
@@ -6869,7 +6980,7 @@
       </c>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B59">
@@ -6961,7 +7072,7 @@
       </c>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B60">
@@ -7053,7 +7164,7 @@
       </c>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B61">
@@ -7145,7 +7256,7 @@
       </c>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B62">
@@ -7237,7 +7348,7 @@
       </c>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B63">
@@ -7329,7 +7440,7 @@
       </c>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B64">
@@ -7421,7 +7532,7 @@
       </c>
     </row>
     <row r="65" spans="1:30">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B65">
@@ -7513,7 +7624,7 @@
       </c>
     </row>
     <row r="66" spans="1:30">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B66">
@@ -7605,7 +7716,7 @@
       </c>
     </row>
     <row r="67" spans="1:30">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B67">
@@ -7697,7 +7808,7 @@
       </c>
     </row>
     <row r="68" spans="1:30">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B68">
@@ -7789,7 +7900,7 @@
       </c>
     </row>
     <row r="69" spans="1:30">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B69">
@@ -7881,7 +7992,7 @@
       </c>
     </row>
     <row r="70" spans="1:30">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B70">
@@ -7938,7 +8049,7 @@
       <c r="S70">
         <v>50</v>
       </c>
-      <c r="T70" s="6">
+      <c r="T70" s="12">
         <v>0</v>
       </c>
       <c r="U70">
@@ -7973,7 +8084,7 @@
       </c>
     </row>
     <row r="71" spans="1:30">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B71">
@@ -8065,7 +8176,7 @@
       </c>
     </row>
     <row r="72" spans="1:30">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B72">
@@ -8157,7 +8268,7 @@
       </c>
     </row>
     <row r="73" spans="1:30">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B73">
@@ -8249,7 +8360,7 @@
       </c>
     </row>
     <row r="74" spans="1:30">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B74">
@@ -8341,7 +8452,7 @@
       </c>
     </row>
     <row r="75" spans="1:30">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B75">
@@ -8433,7 +8544,7 @@
       </c>
     </row>
     <row r="76" spans="1:30">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B76">
@@ -8525,7 +8636,7 @@
       </c>
     </row>
     <row r="77" spans="1:30">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B77">
@@ -8617,7 +8728,7 @@
       </c>
     </row>
     <row r="78" spans="1:30">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B78">
@@ -8709,7 +8820,7 @@
       </c>
     </row>
     <row r="79" spans="1:30">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B79">
@@ -8801,7 +8912,7 @@
       </c>
     </row>
     <row r="80" spans="1:30">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B80">
@@ -8893,7 +9004,7 @@
       </c>
     </row>
     <row r="81" spans="1:30">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B81">
@@ -8985,7 +9096,7 @@
       </c>
     </row>
     <row r="82" spans="1:30">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B82">
@@ -9077,7 +9188,7 @@
       </c>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B83">

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -450,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -470,18 +473,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,23 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,67 +539,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -597,9 +555,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,6 +612,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,19 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +687,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +741,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,25 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,67 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,14 +829,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -863,6 +866,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -920,32 +936,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,8 +973,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,6 +999,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,157 +1043,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,28 +1212,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1268,7 +1300,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1277,7 +1309,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1622,14 +1653,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD83"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD7"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1644,191 +1675,191 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:30">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:30">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:30">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="8" t="b">
@@ -1920,7 +1951,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:30">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="8" t="b">
@@ -2012,7 +2043,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="8" t="b">
@@ -2104,7 +2135,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:30">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="8" t="b">
@@ -2195,192 +2226,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:30">
+    <row r="7" s="3" customFormat="1" spans="1:30">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:30">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="10" t="s">
+      <c r="N8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="P8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="Q8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="R8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="S8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="T8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="U8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="V8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="W8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="X8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Y8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="Z8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AA8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AB8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AC8" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="11" t="s">
+      <c r="AD8" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-      <c r="M8">
-        <v>55000</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>50</v>
-      </c>
-      <c r="P8">
-        <v>50</v>
-      </c>
-      <c r="Q8">
-        <v>50</v>
-      </c>
-      <c r="R8">
-        <v>50</v>
-      </c>
-      <c r="S8">
-        <v>50</v>
-      </c>
-      <c r="T8">
-        <v>50</v>
-      </c>
-      <c r="U8">
-        <v>50</v>
-      </c>
-      <c r="V8">
-        <v>50</v>
-      </c>
-      <c r="W8">
-        <v>50</v>
-      </c>
-      <c r="X8">
-        <v>50</v>
-      </c>
-      <c r="Y8">
-        <v>50</v>
-      </c>
-      <c r="Z8">
-        <v>50</v>
-      </c>
-      <c r="AA8">
-        <v>50</v>
-      </c>
-      <c r="AB8">
-        <v>50</v>
-      </c>
-      <c r="AC8">
-        <v>50</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B9">
@@ -2393,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2411,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L9">
         <v>50</v>
@@ -2472,7 +2503,7 @@
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B10">
@@ -2485,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F10">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2503,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L10">
         <v>50</v>
@@ -2564,7 +2595,7 @@
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B11">
@@ -2577,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F11">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2595,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -2656,7 +2687,7 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B12">
@@ -2669,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F12">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2687,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L12">
         <v>50</v>
@@ -2748,7 +2779,7 @@
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B13">
@@ -2761,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="F13">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2779,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -2840,7 +2871,7 @@
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B14">
@@ -2853,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F14">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2871,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L14">
         <v>50</v>
@@ -2932,7 +2963,7 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B15">
@@ -2945,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F15">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2963,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -3024,7 +3055,7 @@
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B16">
@@ -3037,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="F16">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3055,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L16">
         <v>50</v>
@@ -3116,7 +3147,7 @@
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B17">
@@ -3129,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="F17">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3147,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L17">
         <v>50</v>
@@ -3208,7 +3239,7 @@
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B18">
@@ -3221,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="F18">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3239,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="L18">
         <v>50</v>
@@ -3300,7 +3331,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B19">
@@ -3313,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="F19">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3331,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="L19">
         <v>50</v>
@@ -3392,7 +3423,7 @@
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B20">
@@ -3405,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="F20">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3423,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="L20">
         <v>50</v>
@@ -3484,7 +3515,7 @@
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B21">
@@ -3497,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="F21">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3515,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -3576,7 +3607,7 @@
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B22">
@@ -3589,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="F22">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3607,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -3668,7 +3699,7 @@
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B23">
@@ -3681,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="F23">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3699,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="L23">
         <v>50</v>
@@ -3760,7 +3791,7 @@
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B24">
@@ -3773,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="F24">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3791,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="L24">
         <v>50</v>
@@ -3852,7 +3883,7 @@
       </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B25">
@@ -3865,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="F25">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3883,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="L25">
         <v>50</v>
@@ -3944,7 +3975,7 @@
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B26">
@@ -3957,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="F26">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3975,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="L26">
         <v>50</v>
@@ -4036,7 +4067,7 @@
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B27">
@@ -4049,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="F27">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4067,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="L27">
         <v>50</v>
@@ -4128,7 +4159,7 @@
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B28">
@@ -4141,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="F28">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4159,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="L28">
         <v>50</v>
@@ -4220,7 +4251,7 @@
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B29">
@@ -4233,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="F29">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4251,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="L29">
         <v>50</v>
@@ -4312,7 +4343,7 @@
       </c>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B30">
@@ -4325,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="F30">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4343,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="L30">
         <v>50</v>
@@ -4404,7 +4435,7 @@
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B31">
@@ -4417,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="F31">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4435,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="L31">
         <v>50</v>
@@ -4496,7 +4527,7 @@
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B32">
@@ -4509,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="F32">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4527,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="L32">
         <v>50</v>
@@ -4588,7 +4619,7 @@
       </c>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B33">
@@ -4601,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="F33">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4619,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="L33">
         <v>50</v>
@@ -4680,7 +4711,7 @@
       </c>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B34">
@@ -4693,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="F34">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4711,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="L34">
         <v>50</v>
@@ -4772,7 +4803,7 @@
       </c>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B35">
@@ -4785,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="F35">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4803,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="L35">
         <v>50</v>
@@ -4864,7 +4895,7 @@
       </c>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B36">
@@ -4877,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="F36">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4895,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="L36">
         <v>50</v>
@@ -4956,7 +4987,7 @@
       </c>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B37">
@@ -4969,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="F37">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4987,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="L37">
         <v>50</v>
@@ -5048,7 +5079,7 @@
       </c>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B38">
@@ -5061,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="F38">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5079,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="L38">
         <v>50</v>
@@ -5140,7 +5171,7 @@
       </c>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B39">
@@ -5153,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="F39">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5171,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="L39">
         <v>50</v>
@@ -5232,7 +5263,7 @@
       </c>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B40">
@@ -5245,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="F40">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5263,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="L40">
         <v>50</v>
@@ -5324,7 +5355,7 @@
       </c>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B41">
@@ -5337,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="F41">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5355,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -5416,7 +5447,7 @@
       </c>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B42">
@@ -5429,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="F42">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5447,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="L42">
         <v>50</v>
@@ -5508,7 +5539,7 @@
       </c>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B43">
@@ -5521,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="F43">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5539,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="L43">
         <v>50</v>
@@ -5600,7 +5631,7 @@
       </c>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B44">
@@ -5613,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="F44">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5631,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="L44">
         <v>50</v>
@@ -5692,7 +5723,7 @@
       </c>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B45">
@@ -5705,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="F45">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5723,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="L45">
         <v>50</v>
@@ -5784,7 +5815,7 @@
       </c>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B46">
@@ -5797,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="F46">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5815,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="L46">
         <v>50</v>
@@ -5876,7 +5907,7 @@
       </c>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B47">
@@ -5889,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="F47">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5907,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -5968,7 +5999,7 @@
       </c>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B48">
@@ -5981,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="F48">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5999,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -6060,7 +6091,7 @@
       </c>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B49">
@@ -6073,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="F49">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -6091,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -6152,7 +6183,7 @@
       </c>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B50">
@@ -6165,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="F50">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6183,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -6244,7 +6275,7 @@
       </c>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B51">
@@ -6257,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="F51">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6275,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -6336,7 +6367,7 @@
       </c>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B52">
@@ -6349,10 +6380,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="F52">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -6367,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -6428,7 +6459,7 @@
       </c>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B53">
@@ -6441,10 +6472,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="F53">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6459,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -6520,7 +6551,7 @@
       </c>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B54">
@@ -6533,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="F54">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -6551,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="L54">
         <v>50</v>
@@ -6612,7 +6643,7 @@
       </c>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B55">
@@ -6625,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="F55">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6643,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="L55">
         <v>50</v>
@@ -6704,7 +6735,7 @@
       </c>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B56">
@@ -6717,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="F56">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -6735,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="L56">
         <v>50</v>
@@ -6796,7 +6827,7 @@
       </c>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B57">
@@ -6809,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="F57">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -6827,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="L57">
         <v>50</v>
@@ -6888,7 +6919,7 @@
       </c>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B58">
@@ -6901,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="F58">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6919,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="L58">
         <v>50</v>
@@ -6980,7 +7011,7 @@
       </c>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B59">
@@ -6993,10 +7024,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="F59">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7011,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="L59">
         <v>50</v>
@@ -7072,7 +7103,7 @@
       </c>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B60">
@@ -7085,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="F60">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7103,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="L60">
         <v>50</v>
@@ -7164,7 +7195,7 @@
       </c>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B61">
@@ -7177,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="F61">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -7195,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="L61">
         <v>50</v>
@@ -7256,7 +7287,7 @@
       </c>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B62">
@@ -7269,10 +7300,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="F62">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -7287,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="L62">
         <v>50</v>
@@ -7348,7 +7379,7 @@
       </c>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B63">
@@ -7361,10 +7392,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="F63">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7379,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="L63">
         <v>50</v>
@@ -7440,7 +7471,7 @@
       </c>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B64">
@@ -7453,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="F64">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7471,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="L64">
         <v>50</v>
@@ -7532,7 +7563,7 @@
       </c>
     </row>
     <row r="65" spans="1:30">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B65">
@@ -7545,10 +7576,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="F65">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7563,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="L65">
         <v>50</v>
@@ -7624,7 +7655,7 @@
       </c>
     </row>
     <row r="66" spans="1:30">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B66">
@@ -7637,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="F66">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7655,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="L66">
         <v>50</v>
@@ -7716,7 +7747,7 @@
       </c>
     </row>
     <row r="67" spans="1:30">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B67">
@@ -7729,10 +7760,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="F67">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7747,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="L67">
         <v>50</v>
@@ -7808,7 +7839,7 @@
       </c>
     </row>
     <row r="68" spans="1:30">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B68">
@@ -7821,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -7839,13 +7870,13 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>100</v>
+        <v>5950</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -7854,53 +7885,53 @@
         <v>50</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:30">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B69">
@@ -7931,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -7943,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -7992,7 +8023,7 @@
       </c>
     </row>
     <row r="70" spans="1:30">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B70">
@@ -8005,38 +8036,38 @@
         <v>0</v>
       </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>500</v>
       </c>
-      <c r="F70">
-        <v>500</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>20</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
       <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
         <v>100</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
       <c r="P70">
         <v>0</v>
       </c>
@@ -8047,9 +8078,9 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>50</v>
-      </c>
-      <c r="T70" s="12">
+        <v>0</v>
+      </c>
+      <c r="T70">
         <v>0</v>
       </c>
       <c r="U70">
@@ -8084,7 +8115,7 @@
       </c>
     </row>
     <row r="71" spans="1:30">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B71">
@@ -8097,10 +8128,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F71">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -8118,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8139,9 +8170,9 @@
         <v>0</v>
       </c>
       <c r="S71">
-        <v>100</v>
-      </c>
-      <c r="T71">
+        <v>50</v>
+      </c>
+      <c r="T71" s="13">
         <v>0</v>
       </c>
       <c r="U71">
@@ -8176,7 +8207,7 @@
       </c>
     </row>
     <row r="72" spans="1:30">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B72">
@@ -8189,10 +8220,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -8204,16 +8235,16 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K72">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="M72">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -8231,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -8268,7 +8299,7 @@
       </c>
     </row>
     <row r="73" spans="1:30">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B73">
@@ -8281,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F73">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -8299,13 +8330,13 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="L73">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="M73">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -8360,7 +8391,7 @@
       </c>
     </row>
     <row r="74" spans="1:30">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B74">
@@ -8373,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -8391,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -8452,7 +8483,7 @@
       </c>
     </row>
     <row r="75" spans="1:30">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B75">
@@ -8465,10 +8496,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -8544,7 +8575,7 @@
       </c>
     </row>
     <row r="76" spans="1:30">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B76">
@@ -8560,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G76">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -8636,7 +8667,7 @@
       </c>
     </row>
     <row r="77" spans="1:30">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B77">
@@ -8655,10 +8686,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -8728,7 +8759,7 @@
       </c>
     </row>
     <row r="78" spans="1:30">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B78">
@@ -8750,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I78">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -8820,7 +8851,7 @@
       </c>
     </row>
     <row r="79" spans="1:30">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B79">
@@ -8845,10 +8876,10 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J79">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -8912,7 +8943,7 @@
       </c>
     </row>
     <row r="80" spans="1:30">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B80">
@@ -8940,10 +8971,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K80">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -9004,7 +9035,7 @@
       </c>
     </row>
     <row r="81" spans="1:30">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="12" t="s">
         <v>139</v>
       </c>
       <c r="B81">
@@ -9035,10 +9066,10 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -9096,7 +9127,7 @@
       </c>
     </row>
     <row r="82" spans="1:30">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B82">
@@ -9130,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M82">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -9188,7 +9219,7 @@
       </c>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B83">
@@ -9225,61 +9256,159 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
+      <c r="A84" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
         <v>100</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -446,19 +451,17 @@
   </si>
   <si>
     <t>Gem_Att_Atk_Speed_101</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -473,158 +476,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,194 +500,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -954,251 +625,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,61 +675,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1320,6 +701,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1651,30 +1040,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AD84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="U9" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="9" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="7" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="7" width="11.6328125" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="26" width="16.5" customWidth="1"/>
+    <col min="12" max="26" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +1245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -2042,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -2134,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -2226,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:30">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -2318,194 +1705,194 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="N9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="Z9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AD9" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>55000</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>50</v>
-      </c>
-      <c r="P9">
-        <v>50</v>
-      </c>
-      <c r="Q9">
-        <v>50</v>
-      </c>
-      <c r="R9">
-        <v>50</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
-      </c>
-      <c r="T9">
-        <v>50</v>
-      </c>
-      <c r="U9">
-        <v>50</v>
-      </c>
-      <c r="V9">
-        <v>50</v>
-      </c>
-      <c r="W9">
-        <v>50</v>
-      </c>
-      <c r="X9">
-        <v>50</v>
-      </c>
-      <c r="Y9">
-        <v>50</v>
-      </c>
-      <c r="Z9">
-        <v>50</v>
-      </c>
-      <c r="AA9">
-        <v>50</v>
-      </c>
-      <c r="AB9">
-        <v>50</v>
-      </c>
-      <c r="AC9">
-        <v>50</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -2516,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2534,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L10">
         <v>50</v>
@@ -2594,9 +1981,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2608,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2626,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -2686,9 +2073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2700,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F12">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2718,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L12">
         <v>50</v>
@@ -2778,9 +2165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2792,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F13">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2810,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -2870,9 +2257,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2884,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="F14">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2902,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L14">
         <v>50</v>
@@ -2962,9 +2349,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2976,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F15">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2994,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -3054,9 +2441,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3068,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F16">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3086,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L16">
         <v>50</v>
@@ -3146,9 +2533,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3160,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="F17">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3178,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L17">
         <v>50</v>
@@ -3238,9 +2625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3252,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="F18">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3270,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="L18">
         <v>50</v>
@@ -3330,9 +2717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3344,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="F19">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3362,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="L19">
         <v>50</v>
@@ -3422,9 +2809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3436,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="F20">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3454,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="L20">
         <v>50</v>
@@ -3514,9 +2901,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3528,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="F21">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3546,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -3606,9 +2993,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3620,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="F22">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3638,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="L22">
         <v>50</v>
@@ -3698,9 +3085,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3712,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="F23">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3730,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="L23">
         <v>50</v>
@@ -3790,9 +3177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3804,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="F24">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3822,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="L24">
         <v>50</v>
@@ -3882,9 +3269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3896,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="F25">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3914,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="L25">
         <v>50</v>
@@ -3974,9 +3361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3988,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="F26">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4006,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="L26">
         <v>50</v>
@@ -4066,9 +3453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4080,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="F27">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4098,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="L27">
         <v>50</v>
@@ -4158,9 +3545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4172,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="F28">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4190,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="L28">
         <v>50</v>
@@ -4250,9 +3637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4264,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="F29">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4282,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="L29">
         <v>50</v>
@@ -4342,9 +3729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4356,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="F30">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4374,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="L30">
         <v>50</v>
@@ -4434,9 +3821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4448,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="F31">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4466,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="L31">
         <v>50</v>
@@ -4526,9 +3913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4540,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="F32">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4558,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="L32">
         <v>50</v>
@@ -4618,9 +4005,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4632,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="F33">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4650,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="L33">
         <v>50</v>
@@ -4710,9 +4097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4724,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="F34">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4742,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="L34">
         <v>50</v>
@@ -4802,9 +4189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4816,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="F35">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4834,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="L35">
         <v>50</v>
@@ -4894,9 +4281,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4908,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="F36">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4926,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="L36">
         <v>50</v>
@@ -4986,9 +4373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5000,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="F37">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5018,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="L37">
         <v>50</v>
@@ -5078,9 +4465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5092,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="F38">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5110,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="L38">
         <v>50</v>
@@ -5170,9 +4557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5184,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="F39">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5202,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="L39">
         <v>50</v>
@@ -5262,9 +4649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5276,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="F40">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5294,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="L40">
         <v>50</v>
@@ -5354,9 +4741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5368,10 +4755,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="F41">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5386,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="L41">
         <v>50</v>
@@ -5446,9 +4833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5460,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="F42">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5478,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="L42">
         <v>50</v>
@@ -5538,9 +4925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5552,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="F43">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5570,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="L43">
         <v>50</v>
@@ -5630,9 +5017,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5644,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="F44">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5662,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="L44">
         <v>50</v>
@@ -5722,9 +5109,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5736,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="F45">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5754,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="L45">
         <v>50</v>
@@ -5814,9 +5201,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5828,10 +5215,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="F46">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5846,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="L46">
         <v>50</v>
@@ -5906,9 +5293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5920,10 +5307,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="F47">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5938,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -5998,9 +5385,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6012,10 +5399,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="F48">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -6030,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -6090,9 +5477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6104,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="F49">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -6122,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -6182,9 +5569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6196,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="F50">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6214,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -6274,9 +5661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6288,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="F51">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6306,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -6366,9 +5753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6380,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="F52">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -6398,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -6458,9 +5845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6472,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="F53">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6490,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -6550,9 +5937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6564,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="F54">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -6582,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="L54">
         <v>50</v>
@@ -6642,9 +6029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6656,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="F55">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6674,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="L55">
         <v>50</v>
@@ -6734,9 +6121,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6748,10 +6135,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="F56">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -6766,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="L56">
         <v>50</v>
@@ -6826,9 +6213,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6840,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="F57">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -6858,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="L57">
         <v>50</v>
@@ -6918,9 +6305,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6932,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="F58">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6950,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="L58">
         <v>50</v>
@@ -7010,9 +6397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7024,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="F59">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7042,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="L59">
         <v>50</v>
@@ -7102,9 +6489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7116,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="F60">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7134,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="L60">
         <v>50</v>
@@ -7194,9 +6581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7208,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="F61">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -7226,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="L61">
         <v>50</v>
@@ -7286,9 +6673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7300,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="F62">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -7318,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="L62">
         <v>50</v>
@@ -7378,9 +6765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7392,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="F63">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7410,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="L63">
         <v>50</v>
@@ -7470,9 +6857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7484,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="F64">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7502,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="L64">
         <v>50</v>
@@ -7562,9 +6949,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7576,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="F65">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7594,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="L65">
         <v>50</v>
@@ -7654,9 +7041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7668,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="F66">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7686,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="L66">
         <v>50</v>
@@ -7746,9 +7133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7760,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="F67">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7778,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="L67">
         <v>50</v>
@@ -7838,9 +7225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7852,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="F68">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -7870,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="L68">
         <v>50</v>
@@ -7930,300 +7317,300 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>5950</v>
+      </c>
+      <c r="F69">
+        <v>5950</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>5950</v>
+      </c>
+      <c r="L69">
+        <v>50</v>
+      </c>
+      <c r="M69">
+        <v>55000</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>50</v>
+      </c>
+      <c r="P69">
+        <v>50</v>
+      </c>
+      <c r="Q69">
+        <v>50</v>
+      </c>
+      <c r="R69">
+        <v>50</v>
+      </c>
+      <c r="S69">
+        <v>50</v>
+      </c>
+      <c r="T69">
+        <v>50</v>
+      </c>
+      <c r="U69">
+        <v>50</v>
+      </c>
+      <c r="V69">
+        <v>50</v>
+      </c>
+      <c r="W69">
+        <v>50</v>
+      </c>
+      <c r="X69">
+        <v>50</v>
+      </c>
+      <c r="Y69">
+        <v>50</v>
+      </c>
+      <c r="Z69">
+        <v>50</v>
+      </c>
+      <c r="AA69">
+        <v>50</v>
+      </c>
+      <c r="AB69">
+        <v>50</v>
+      </c>
+      <c r="AC69">
+        <v>50</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>100</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>50</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>50</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
-      <c r="A70" s="12" t="s">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>500</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
         <v>100</v>
       </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
-      <c r="A71" s="12" t="s">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>500</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>500</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>20</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>100</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>50</v>
-      </c>
-      <c r="T71" s="13">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
-      <c r="A72" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>2500</v>
-      </c>
-      <c r="F72">
-        <v>2500</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -8241,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8262,9 +7649,9 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>100</v>
-      </c>
-      <c r="T72">
+        <v>50</v>
+      </c>
+      <c r="T72" s="13">
         <v>0</v>
       </c>
       <c r="U72">
@@ -8298,9 +7685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8312,10 +7699,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -8327,16 +7714,16 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K73">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="M73">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -8354,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -8390,9 +7777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8404,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F74">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -8422,994 +7809,1087 @@
         <v>0</v>
       </c>
       <c r="K74">
+        <v>30</v>
+      </c>
+      <c r="L74">
+        <v>70</v>
+      </c>
+      <c r="M74">
+        <v>55000</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>500</v>
+      </c>
+      <c r="F75">
+        <v>500</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <v>130</v>
       </c>
-      <c r="L74">
+      <c r="L75">
         <v>270</v>
       </c>
-      <c r="M74">
+      <c r="M75">
         <v>65000</v>
       </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AD74">
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
-      <c r="A75" s="12" t="s">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>100</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
-      <c r="A76" s="12" t="s">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
         <v>100</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AD76">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
-      <c r="A77" s="12" t="s">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
         <v>100</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
-      <c r="A78" s="12" t="s">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>100</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
-      <c r="A79" s="12" t="s">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>100</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79">
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
-      <c r="A80" s="12" t="s">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>100</v>
       </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
-      <c r="A81" s="12" t="s">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
         <v>100</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
-      <c r="A82" s="12" t="s">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
         <v>100</v>
       </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
-      <c r="A83" s="12" t="s">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
         <v>100</v>
       </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
-      <c r="A84" s="12" t="s">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
         <v>100</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,14 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -138,93 +146,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>暴击</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>法力值</t>
-  </si>
-  <si>
-    <t>体力</t>
-  </si>
-  <si>
-    <t>生命值回复</t>
-  </si>
-  <si>
-    <t>体力回复</t>
-  </si>
-  <si>
-    <t>MP回复</t>
-  </si>
-  <si>
-    <t>物理攻击力</t>
-  </si>
-  <si>
-    <t>物理防御力</t>
-  </si>
-  <si>
-    <t>移动速度,默认单位是10000=1米</t>
-  </si>
-  <si>
-    <t>攻击速度默认10000</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>雷电</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>冰</t>
-  </si>
-  <si>
-    <t>毒</t>
-  </si>
-  <si>
-    <t>火抗</t>
-  </si>
-  <si>
-    <t>雷电抗</t>
-  </si>
-  <si>
-    <t>土抗</t>
-  </si>
-  <si>
-    <t>冰抗</t>
-  </si>
-  <si>
-    <t>毒抗</t>
-  </si>
-  <si>
-    <t>眩晕开关</t>
-  </si>
-  <si>
-    <t>移动开关</t>
-  </si>
-  <si>
-    <t>技能开关</t>
-  </si>
-  <si>
-    <t>物理免疫开关</t>
-  </si>
-  <si>
-    <t>魔法免疫开关</t>
-  </si>
-  <si>
-    <t>BUFF免疫开关</t>
-  </si>
-  <si>
     <t>PlayerAtt1</t>
   </si>
   <si>
@@ -455,12 +376,99 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPID_SUCKBLOOD</t>
+  </si>
+  <si>
+    <t>LPID_REFLECTDAMAGE</t>
+  </si>
+  <si>
+    <t>LPID_CRITICAL</t>
+  </si>
+  <si>
+    <t>LPID_MAXHP</t>
+  </si>
+  <si>
+    <t>LPID_MAXMP</t>
+  </si>
+  <si>
+    <t>LPID_MAXSP</t>
+  </si>
+  <si>
+    <t>LPID_HPREGEN</t>
+  </si>
+  <si>
+    <t>LPID_SPREGEN</t>
+  </si>
+  <si>
+    <t>LPID_MPREGEN</t>
+  </si>
+  <si>
+    <t>LPID_ATK_VALUE</t>
+  </si>
+  <si>
+    <t>LPID_DEF_VALUE</t>
+  </si>
+  <si>
+    <t>LPID_MOVE_SPEED</t>
+  </si>
+  <si>
+    <t>LPID_ATK_SPEED</t>
+  </si>
+  <si>
+    <t>LPID_ATK_FIRE</t>
+  </si>
+  <si>
+    <t>LPID_ATK_LIGHT</t>
+  </si>
+  <si>
+    <t>LPID_ATK_WIND</t>
+  </si>
+  <si>
+    <t>LPID_ATK_ICE</t>
+  </si>
+  <si>
+    <t>LPID_ATK_POISON</t>
+  </si>
+  <si>
+    <t>LPID_DEF_FIRE</t>
+  </si>
+  <si>
+    <t>LPID_DEF_LIGHT</t>
+  </si>
+  <si>
+    <t>LPID_DEF_WIND</t>
+  </si>
+  <si>
+    <t>LPID_DEF_ICE</t>
+  </si>
+  <si>
+    <t>LPID_DEF_POISON</t>
+  </si>
+  <si>
+    <t>LPID_DIZZY_GATE</t>
+  </si>
+  <si>
+    <t>LPID_MOVE_GATE</t>
+  </si>
+  <si>
+    <t>LPID_SKILL_GATE</t>
+  </si>
+  <si>
+    <t>LPID_PHYSICAL_GATE</t>
+  </si>
+  <si>
+    <t>LPID_MAGIC_GATE</t>
+  </si>
+  <si>
+    <t>LPID_BUFF_GATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,7 +684,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -695,7 +703,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1044,24 +1052,28 @@
   <dimension ref="A1:AD85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="7" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="26" width="16.453125" customWidth="1"/>
+    <col min="12" max="26" width="16.5" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -1521,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1613,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -1705,9 +1717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -1797,101 +1809,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1981,9 +1993,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2073,9 +2085,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2165,9 +2177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2257,9 +2269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2349,9 +2361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2441,9 +2453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2533,9 +2545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2625,9 +2637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2717,9 +2729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2809,9 +2821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2901,9 +2913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2993,9 +3005,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3085,9 +3097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3177,9 +3189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3269,9 +3281,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3361,9 +3373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3453,9 +3465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3545,9 +3557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3637,9 +3649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3729,9 +3741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3821,9 +3833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3913,9 +3925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4005,9 +4017,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4097,9 +4109,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4189,9 +4201,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4281,9 +4293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4373,9 +4385,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4465,9 +4477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4557,9 +4569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4649,9 +4661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4741,9 +4753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4833,9 +4845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4925,9 +4937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5017,9 +5029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5109,9 +5121,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5201,9 +5213,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5293,9 +5305,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5385,9 +5397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5477,9 +5489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5569,9 +5581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5661,9 +5673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5753,9 +5765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5845,9 +5857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5937,9 +5949,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6029,9 +6041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6121,9 +6133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6213,9 +6225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6305,9 +6317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6397,9 +6409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6489,9 +6501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6581,9 +6593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6673,9 +6685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -6765,9 +6777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -6857,9 +6869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -6949,9 +6961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7041,9 +7053,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7133,9 +7145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7225,9 +7237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7317,9 +7329,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -7409,9 +7421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -7501,9 +7513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -7593,9 +7605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7685,9 +7697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -7777,9 +7789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -7869,9 +7881,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -7961,9 +7973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A76" s="12" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8053,9 +8065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8145,9 +8157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A78" s="12" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -8237,9 +8249,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A79" s="12" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -8329,9 +8341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A80" s="12" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -8421,9 +8433,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A81" s="12" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -8513,9 +8525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A82" s="12" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -8605,9 +8617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A83" s="12" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -8697,9 +8709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A84" s="12" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -8789,9 +8801,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A85" s="12" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B85">
         <v>0</v>
